--- a/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
+++ b/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Dates</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -450,99 +446,123 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45200</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45292</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45383</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.39</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45474</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.35</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45566</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45658</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45748</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45839</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45931</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>46023</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0.16</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>46113</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-04-01</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>46204</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-07-01</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
+++ b/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.23</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.14</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.25</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
+++ b/notebooks/output_data/GDP_Growth_Over_next_12_Querters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.26</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.13</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.15</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.37</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.11</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.13</v>
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
